--- a/Script/BibleReferences.xlsx
+++ b/Script/BibleReferences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruffray/Perso/Spi/Formation/Anthropologie Biblique/Github/CorpusThomisticum2md/Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E33E154C-420D-2F4D-B19B-BF92B6FB3B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{25E3C123-C86F-DC44-84F4-D9C8AFD0AD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16620"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24200" windowHeight="16560"/>
   </bookViews>
   <sheets>
     <sheet name="BibleReferences" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="222">
   <si>
     <t>#BibleReferences</t>
   </si>
@@ -148,9 +148,6 @@
     <t>1 Esdré</t>
   </si>
   <si>
-    <t>Esdrae ?</t>
-  </si>
-  <si>
     <t>Nehemiah</t>
   </si>
   <si>
@@ -622,7 +619,73 @@
     <t>Apocalypsis</t>
   </si>
   <si>
-    <t>Appoc.</t>
+    <t>Num.</t>
+  </si>
+  <si>
+    <t>Iosue</t>
+  </si>
+  <si>
+    <t>Ios.</t>
+  </si>
+  <si>
+    <t>Iudic.</t>
+  </si>
+  <si>
+    <t>I Paral.</t>
+  </si>
+  <si>
+    <t>II Paral.</t>
+  </si>
+  <si>
+    <t>I Paralip.</t>
+  </si>
+  <si>
+    <t>II Paralip.</t>
+  </si>
+  <si>
+    <t>Esdr.</t>
+  </si>
+  <si>
+    <t>Esdrae</t>
+  </si>
+  <si>
+    <t>II Esdr.</t>
+  </si>
+  <si>
+    <t>Iudith</t>
+  </si>
+  <si>
+    <t>Ioel</t>
+  </si>
+  <si>
+    <t>Ionae</t>
+  </si>
+  <si>
+    <t>Sophon.</t>
+  </si>
+  <si>
+    <t>I Machab.</t>
+  </si>
+  <si>
+    <t>Philem.</t>
+  </si>
+  <si>
+    <t>II Ioan.</t>
+  </si>
+  <si>
+    <t>II Ioann.</t>
+  </si>
+  <si>
+    <t>III Ioan.</t>
+  </si>
+  <si>
+    <t>III Ioann.</t>
+  </si>
+  <si>
+    <t>Apocalyps.</t>
+  </si>
+  <si>
+    <t>Apoc.</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1508,6 +1573,9 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1538,6 +1606,9 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
+      <c r="C7" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1560,6 +1631,12 @@
       <c r="B9" t="s">
         <v>20</v>
       </c>
+      <c r="C9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1568,6 +1645,9 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
+      <c r="C10" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1576,6 +1656,9 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1628,6 +1711,12 @@
       <c r="B16" t="s">
         <v>37</v>
       </c>
+      <c r="C16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1636,6 +1725,12 @@
       <c r="B17" t="s">
         <v>39</v>
       </c>
+      <c r="C17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1644,643 +1739,691 @@
       <c r="B18" t="s">
         <v>41</v>
       </c>
+      <c r="C18" t="s">
+        <v>207</v>
+      </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="B19" t="s">
-        <v>44</v>
+      <c r="C19" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
         <v>45</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>46</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
         <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
         <v>52</v>
       </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>55</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
         <v>57</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>60</v>
-      </c>
-      <c r="C27" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
         <v>62</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>63</v>
-      </c>
-      <c r="C28" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
         <v>65</v>
-      </c>
-      <c r="B29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>68</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>69</v>
-      </c>
-      <c r="D30" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
         <v>71</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>72</v>
-      </c>
-      <c r="C31" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
         <v>74</v>
-      </c>
-      <c r="B32" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
         <v>77</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>78</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>79</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>80</v>
-      </c>
-      <c r="E34" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" t="s">
         <v>82</v>
       </c>
-      <c r="B35" t="s">
-        <v>83</v>
-      </c>
       <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
         <v>82</v>
-      </c>
-      <c r="D35" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
         <v>84</v>
       </c>
-      <c r="B36" t="s">
-        <v>85</v>
-      </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
         <v>88</v>
-      </c>
-      <c r="B39" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
         <v>90</v>
       </c>
-      <c r="B40" t="s">
-        <v>91</v>
+      <c r="C40" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
         <v>92</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>93</v>
-      </c>
-      <c r="C41" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
         <v>96</v>
       </c>
-      <c r="B43" t="s">
-        <v>97</v>
+      <c r="C43" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
         <v>98</v>
       </c>
-      <c r="B44" t="s">
-        <v>99</v>
+      <c r="C44" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
         <v>100</v>
-      </c>
-      <c r="B45" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" t="s">
         <v>102</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>103</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>104</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>105</v>
-      </c>
-      <c r="E46" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
         <v>107</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>108</v>
-      </c>
-      <c r="C47" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" t="s">
         <v>110</v>
       </c>
-      <c r="B48" t="s">
-        <v>111</v>
+      <c r="C48" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
         <v>112</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>113</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>114</v>
-      </c>
-      <c r="D49" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" t="s">
         <v>116</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>117</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>118</v>
-      </c>
-      <c r="D50" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" t="s">
         <v>120</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>121</v>
-      </c>
-      <c r="C51" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" t="s">
         <v>123</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>124</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>125</v>
-      </c>
-      <c r="D52" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" t="s">
         <v>127</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>128</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>129</v>
-      </c>
-      <c r="D53" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" t="s">
         <v>131</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>132</v>
-      </c>
-      <c r="C54" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" t="s">
         <v>134</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>135</v>
-      </c>
-      <c r="C55" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" t="s">
         <v>137</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>138</v>
-      </c>
-      <c r="C56" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" t="s">
         <v>140</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>141</v>
-      </c>
-      <c r="C57" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" t="s">
         <v>143</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>144</v>
-      </c>
-      <c r="C58" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" t="s">
         <v>146</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>147</v>
-      </c>
-      <c r="C59" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" t="s">
         <v>149</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>150</v>
-      </c>
-      <c r="C60" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" t="s">
         <v>152</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>153</v>
-      </c>
-      <c r="C61" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" t="s">
         <v>155</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>156</v>
-      </c>
-      <c r="C62" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" t="s">
         <v>158</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>159</v>
-      </c>
-      <c r="C63" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" t="s">
         <v>161</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>162</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>163</v>
-      </c>
-      <c r="D64" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65" t="s">
         <v>165</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>166</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>167</v>
-      </c>
-      <c r="D65" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B66" t="s">
         <v>169</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>170</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>171</v>
-      </c>
-      <c r="D66" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" t="s">
         <v>173</v>
       </c>
-      <c r="B67" t="s">
-        <v>174</v>
+      <c r="C67" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" t="s">
         <v>175</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>176</v>
-      </c>
-      <c r="C68" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" t="s">
         <v>178</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>179</v>
-      </c>
-      <c r="C69" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>180</v>
+      </c>
+      <c r="B70" t="s">
         <v>181</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>182</v>
-      </c>
-      <c r="C70" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>183</v>
+      </c>
+      <c r="B71" t="s">
         <v>184</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>185</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>186</v>
-      </c>
-      <c r="D71" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" t="s">
         <v>188</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>189</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>190</v>
-      </c>
-      <c r="D72" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" t="s">
         <v>192</v>
       </c>
-      <c r="B73" t="s">
-        <v>193</v>
+      <c r="C73" t="s">
+        <v>216</v>
+      </c>
+      <c r="D73" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>193</v>
+      </c>
+      <c r="B74" t="s">
         <v>194</v>
       </c>
-      <c r="B74" t="s">
-        <v>195</v>
+      <c r="C74" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>195</v>
+      </c>
+      <c r="B75" t="s">
         <v>196</v>
-      </c>
-      <c r="B75" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>197</v>
+      </c>
+      <c r="B76" t="s">
         <v>198</v>
       </c>
-      <c r="B76" t="s">
-        <v>199</v>
-      </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>221</v>
+      </c>
+      <c r="D76" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
